--- a/selected_orders.xlsx
+++ b/selected_orders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Customer Name</t>
   </si>
@@ -31,10 +31,58 @@
     <t>Status</t>
   </si>
   <si>
+    <t>ghadd</t>
+  </si>
+  <si>
+    <t>Bachir refuser</t>
+  </si>
+  <si>
+    <t>Bachir hajri</t>
+  </si>
+  <si>
+    <t>bachir</t>
+  </si>
+  <si>
+    <t>Houssem Hmida</t>
+  </si>
+  <si>
+    <t>Nafea</t>
+  </si>
+  <si>
+    <t>wahid</t>
+  </si>
+  <si>
+    <t>Lotfi</t>
+  </si>
+  <si>
+    <t>Weal</t>
+  </si>
+  <si>
     <t>Bassem</t>
   </si>
   <si>
+    <t>Hassen</t>
+  </si>
+  <si>
+    <t>Mounir</t>
+  </si>
+  <si>
+    <t>dhiya</t>
+  </si>
+  <si>
+    <t>samsung A10s</t>
+  </si>
+  <si>
+    <t>Pixel 5 Pro</t>
+  </si>
+  <si>
+    <t>iphone 12</t>
+  </si>
+  <si>
     <t>Nova 7i</t>
+  </si>
+  <si>
+    <t>Redmi 12 pro</t>
   </si>
   <si>
     <t>New</t>
@@ -399,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,16 +475,220 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45236.66288194444</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45235.86582175926</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45235.86114583333</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45235.72052083333</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45235.41515046296</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45235.3702662037</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45234.38440972222</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45234.80172453704</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45234.76681712963</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
         <v>120</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D11" s="2">
         <v>45234.63769675926</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>80</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45234.61899305556</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45234.42662037037</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45234.39853009259</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/selected_orders.xlsx
+++ b/selected_orders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>Customer Name</t>
   </si>
@@ -31,6 +31,15 @@
     <t>Status</t>
   </si>
   <si>
+    <t>iheb nguili</t>
+  </si>
+  <si>
+    <t>teatime</t>
+  </si>
+  <si>
+    <t>loco</t>
+  </si>
+  <si>
     <t>ghadd</t>
   </si>
   <si>
@@ -70,19 +79,19 @@
     <t>dhiya</t>
   </si>
   <si>
+    <t>iphone 12</t>
+  </si>
+  <si>
+    <t>Redmi 12 pro</t>
+  </si>
+  <si>
+    <t>Nova 7i</t>
+  </si>
+  <si>
     <t>samsung A10s</t>
   </si>
   <si>
     <t>Pixel 5 Pro</t>
-  </si>
-  <si>
-    <t>iphone 12</t>
-  </si>
-  <si>
-    <t>Nova 7i</t>
-  </si>
-  <si>
-    <t>Redmi 12 pro</t>
   </si>
   <si>
     <t>New</t>
@@ -447,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,16 +484,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" s="2">
-        <v>45236.66288194444</v>
+        <v>45256.73430555555</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -492,16 +501,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" s="2">
-        <v>45235.86582175926</v>
+        <v>45238.79208333333</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -509,16 +518,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="D4" s="2">
-        <v>45235.86114583333</v>
+        <v>45238.78996527778</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -526,16 +535,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>45235.72052083333</v>
+        <v>45236.66288194444</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -543,16 +552,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2">
-        <v>45235.41515046296</v>
+        <v>45235.86582175926</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -560,16 +569,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>45235.3702662037</v>
+        <v>45235.86114583333</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -580,13 +589,13 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2">
-        <v>45234.38440972222</v>
+        <v>45235.72052083333</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -594,16 +603,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
         <v>20</v>
       </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
       <c r="D9" s="2">
-        <v>45234.80172453704</v>
+        <v>45235.41515046296</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -611,16 +620,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
-        <v>45234.76681712963</v>
+        <v>45235.3702662037</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -628,16 +637,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="D11" s="2">
-        <v>45234.63769675926</v>
+        <v>45234.38440972222</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -648,13 +657,13 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>45234.61899305556</v>
+        <v>45234.80172453704</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -662,16 +671,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2">
-        <v>45234.42662037037</v>
+        <v>45234.76681712963</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -679,16 +688,67 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>120</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45234.63769675926</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45234.61899305556</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="C14">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45234.42662037037</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
         <v>10</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D17" s="2">
         <v>45234.39853009259</v>
       </c>
-      <c r="E14" t="s">
-        <v>23</v>
+      <c r="E17" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
